--- a/DATA/collate_cultivar_data_50_percent/data/fit_of_kcp_vs_cumulative_gdd.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/data/fit_of_kcp_vs_cumulative_gdd.xlsx
@@ -10908,7 +10908,7 @@
         <v>1314</v>
       </c>
       <c r="B1316">
-        <v>0.4188919</v>
+        <v>0.4188918</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -11324,7 +11324,7 @@
         <v>1366</v>
       </c>
       <c r="B1368">
-        <v>0.4120892</v>
+        <v>0.4120889</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11332,7 +11332,7 @@
         <v>1367</v>
       </c>
       <c r="B1369">
-        <v>0.4103786</v>
+        <v>0.4103783</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11340,7 +11340,7 @@
         <v>1368</v>
       </c>
       <c r="B1370">
-        <v>0.4086681</v>
+        <v>0.4086677</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11348,7 +11348,7 @@
         <v>1369</v>
       </c>
       <c r="B1371">
-        <v>0.4069575</v>
+        <v>0.4069571</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
@@ -11356,7 +11356,7 @@
         <v>1370</v>
       </c>
       <c r="B1372">
-        <v>0.4052469</v>
+        <v>0.4052465</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11364,7 +11364,7 @@
         <v>1371</v>
       </c>
       <c r="B1373">
-        <v>0.4035364</v>
+        <v>0.4035359</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11372,7 +11372,7 @@
         <v>1372</v>
       </c>
       <c r="B1374">
-        <v>0.4018258</v>
+        <v>0.4018253</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11740,7 +11740,7 @@
         <v>1418</v>
       </c>
       <c r="B1420">
-        <v>0.3987602</v>
+        <v>0.398754</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11748,7 +11748,7 @@
         <v>1419</v>
       </c>
       <c r="B1421">
-        <v>0.3968883</v>
+        <v>0.3968817</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11756,7 +11756,7 @@
         <v>1420</v>
       </c>
       <c r="B1422">
-        <v>0.3950163</v>
+        <v>0.3950094</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11764,7 +11764,7 @@
         <v>1421</v>
       </c>
       <c r="B1423">
-        <v>0.3931444</v>
+        <v>0.3931371</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11772,7 +11772,7 @@
         <v>1422</v>
       </c>
       <c r="B1424">
-        <v>0.3912724</v>
+        <v>0.3912648</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11780,7 +11780,7 @@
         <v>1423</v>
       </c>
       <c r="B1425">
-        <v>0.3894005</v>
+        <v>0.3893925</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11788,7 +11788,7 @@
         <v>1424</v>
       </c>
       <c r="B1426">
-        <v>0.3875285</v>
+        <v>0.3875201</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -12132,7 +12132,7 @@
         <v>1467</v>
       </c>
       <c r="B1469">
-        <v>0.3850601</v>
+        <v>0.3849908</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12140,7 +12140,7 @@
         <v>1468</v>
       </c>
       <c r="B1470">
-        <v>0.3830438</v>
+        <v>0.3829711</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12148,7 +12148,7 @@
         <v>1469</v>
       </c>
       <c r="B1471">
-        <v>0.3810274</v>
+        <v>0.3809515</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12156,7 +12156,7 @@
         <v>1470</v>
       </c>
       <c r="B1472">
-        <v>0.3790111</v>
+        <v>0.3789318</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12164,7 +12164,7 @@
         <v>1471</v>
       </c>
       <c r="B1473">
-        <v>0.3769947</v>
+        <v>0.3769121</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12172,7 +12172,7 @@
         <v>1472</v>
       </c>
       <c r="B1474">
-        <v>0.3749784</v>
+        <v>0.3748924</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12492,7 +12492,7 @@
         <v>1512</v>
       </c>
       <c r="B1514">
-        <v>0.3726928</v>
+        <v>0.3722435</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12500,7 +12500,7 @@
         <v>1513</v>
       </c>
       <c r="B1515">
-        <v>0.3704347</v>
+        <v>0.369969</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12508,7 +12508,7 @@
         <v>1514</v>
       </c>
       <c r="B1516">
-        <v>0.3681767</v>
+        <v>0.3676945</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12516,7 +12516,7 @@
         <v>1515</v>
       </c>
       <c r="B1517">
-        <v>0.3659186</v>
+        <v>0.36542</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12524,7 +12524,7 @@
         <v>1516</v>
       </c>
       <c r="B1518">
-        <v>0.3636606</v>
+        <v>0.3631455</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12532,7 +12532,7 @@
         <v>1517</v>
       </c>
       <c r="B1519">
-        <v>0.3614025</v>
+        <v>0.360871</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12820,7 +12820,7 @@
         <v>1553</v>
       </c>
       <c r="B1555">
-        <v>0.359152</v>
+        <v>0.3586368</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12828,7 +12828,7 @@
         <v>1554</v>
       </c>
       <c r="B1556">
-        <v>0.3576111</v>
+        <v>0.3558271</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12836,7 +12836,7 @@
         <v>1555</v>
       </c>
       <c r="B1557">
-        <v>0.3548379</v>
+        <v>0.3530175</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12844,7 +12844,7 @@
         <v>1556</v>
       </c>
       <c r="B1558">
-        <v>0.3520646</v>
+        <v>0.3502079</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12852,7 +12852,7 @@
         <v>1557</v>
       </c>
       <c r="B1559">
-        <v>0.3492913</v>
+        <v>0.3473983</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12860,7 +12860,7 @@
         <v>1558</v>
       </c>
       <c r="B1560">
-        <v>0.3465181</v>
+        <v>0.3445887</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -12868,7 +12868,7 @@
         <v>1559</v>
       </c>
       <c r="B1561">
-        <v>0.3437448</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -13116,7 +13116,7 @@
         <v>1590</v>
       </c>
       <c r="B1592">
-        <v>0.3436908</v>
+        <v>0.3413424</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13124,7 +13124,7 @@
         <v>1591</v>
       </c>
       <c r="B1593">
-        <v>0.3408815</v>
+        <v>0.3375767</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13132,7 +13132,7 @@
         <v>1592</v>
       </c>
       <c r="B1594">
-        <v>0.3370727</v>
+        <v>0.333811</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13140,7 +13140,7 @@
         <v>1593</v>
       </c>
       <c r="B1595">
-        <v>0.333264</v>
+        <v>0.3300453</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
@@ -13148,7 +13148,7 @@
         <v>1594</v>
       </c>
       <c r="B1596">
-        <v>0.3294552</v>
+        <v>0.3262795</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13156,7 +13156,7 @@
         <v>1595</v>
       </c>
       <c r="B1597">
-        <v>0.3256464</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="1598" spans="1:2">
@@ -13380,7 +13380,7 @@
         <v>1623</v>
       </c>
       <c r="B1625">
-        <v>0.322574</v>
+        <v>0.324997</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13388,7 +13388,7 @@
         <v>1624</v>
       </c>
       <c r="B1626">
-        <v>0.3173099</v>
+        <v>0.320171</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13396,7 +13396,7 @@
         <v>1625</v>
       </c>
       <c r="B1627">
-        <v>0.3120458</v>
+        <v>0.3153449</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13404,7 +13404,7 @@
         <v>1626</v>
       </c>
       <c r="B1628">
-        <v>0.3067817</v>
+        <v>0.3105189</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13412,7 +13412,7 @@
         <v>1627</v>
       </c>
       <c r="B1629">
-        <v>0.3021063</v>
+        <v>0.3056929</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13628,7 +13628,7 @@
         <v>1654</v>
       </c>
       <c r="B1656">
-        <v>0.2999696</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13636,7 +13636,7 @@
         <v>1655</v>
       </c>
       <c r="B1657">
-        <v>0.2937737</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13644,7 +13644,7 @@
         <v>1656</v>
       </c>
       <c r="B1658">
-        <v>0.2875778</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13652,7 +13652,7 @@
         <v>1657</v>
       </c>
       <c r="B1659">
-        <v>0.2813819</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13660,7 +13660,7 @@
         <v>1658</v>
       </c>
       <c r="B1660">
-        <v>0.275186</v>
+        <v>0.3009324</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13668,7 +13668,7 @@
         <v>1659</v>
       </c>
       <c r="B1661">
-        <v>0.2732052</v>
+        <v>0.2954442</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13676,7 +13676,7 @@
         <v>1660</v>
       </c>
       <c r="B1662">
-        <v>0.2732052</v>
+        <v>0.289956</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13684,7 +13684,7 @@
         <v>1661</v>
       </c>
       <c r="B1663">
-        <v>0.2732052</v>
+        <v>0.2844678</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13692,7 +13692,7 @@
         <v>1662</v>
       </c>
       <c r="B1664">
-        <v>0.2732052</v>
+        <v>0.2789796</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13700,7 +13700,7 @@
         <v>1663</v>
       </c>
       <c r="B1665">
-        <v>0.2732052</v>
+        <v>0.2734915</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13908,7 +13908,7 @@
         <v>1689</v>
       </c>
       <c r="B1691">
-        <v>0.2668528</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13916,7 +13916,7 @@
         <v>1690</v>
       </c>
       <c r="B1692">
-        <v>0.2602526</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13924,7 +13924,7 @@
         <v>1691</v>
       </c>
       <c r="B1693">
-        <v>0.2536523</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13932,7 +13932,7 @@
         <v>1692</v>
       </c>
       <c r="B1694">
-        <v>0.2470521</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -13940,7 +13940,7 @@
         <v>1693</v>
       </c>
       <c r="B1695">
-        <v>0.2404518</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13948,7 +13948,7 @@
         <v>1694</v>
       </c>
       <c r="B1696">
-        <v>0.2392081</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13956,7 +13956,7 @@
         <v>1695</v>
       </c>
       <c r="B1697">
-        <v>0.2392081</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -13964,7 +13964,7 @@
         <v>1696</v>
       </c>
       <c r="B1698">
-        <v>0.2392081</v>
+        <v>0.2683826</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13972,7 +13972,7 @@
         <v>1697</v>
       </c>
       <c r="B1699">
-        <v>0.2392081</v>
+        <v>0.2618873</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13980,7 +13980,7 @@
         <v>1698</v>
       </c>
       <c r="B1700">
-        <v>0.2392081</v>
+        <v>0.2553921</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13988,7 +13988,7 @@
         <v>1699</v>
       </c>
       <c r="B1701">
-        <v>0.2392081</v>
+        <v>0.2488968</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13996,7 +13996,7 @@
         <v>1700</v>
       </c>
       <c r="B1702">
-        <v>0.2392081</v>
+        <v>0.2424015</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14188,7 +14188,7 @@
         <v>1724</v>
       </c>
       <c r="B1726">
-        <v>0.2312775</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14196,7 +14196,7 @@
         <v>1725</v>
       </c>
       <c r="B1727">
-        <v>0.2232617</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14204,7 +14204,7 @@
         <v>1726</v>
       </c>
       <c r="B1728">
-        <v>0.2152458</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14212,7 +14212,7 @@
         <v>1727</v>
       </c>
       <c r="B1729">
-        <v>0.2072299</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14220,7 +14220,7 @@
         <v>1728</v>
       </c>
       <c r="B1730">
-        <v>0.2031097</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14228,7 +14228,7 @@
         <v>1729</v>
       </c>
       <c r="B1731">
-        <v>0.2031097</v>
+        <v>0.2357492</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
@@ -14236,7 +14236,7 @@
         <v>1730</v>
       </c>
       <c r="B1732">
-        <v>0.2031097</v>
+        <v>0.2266814</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14244,7 +14244,7 @@
         <v>1731</v>
       </c>
       <c r="B1733">
-        <v>0.2031097</v>
+        <v>0.2176136</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14252,7 +14252,7 @@
         <v>1732</v>
       </c>
       <c r="B1734">
-        <v>0.2031097</v>
+        <v>0.2085458</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14396,7 +14396,7 @@
         <v>1750</v>
       </c>
       <c r="B1752">
-        <v>0.2023524</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14404,7 +14404,7 @@
         <v>1751</v>
       </c>
       <c r="B1753">
-        <v>0.1908587</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14412,7 +14412,7 @@
         <v>1752</v>
       </c>
       <c r="B1754">
-        <v>0.1793649</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14420,7 +14420,7 @@
         <v>1753</v>
       </c>
       <c r="B1755">
-        <v>0.1693216</v>
+        <v>0.1904428</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14428,7 +14428,7 @@
         <v>1754</v>
       </c>
       <c r="B1756">
-        <v>0.1693216</v>
+        <v>0.1772948</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14532,7 +14532,7 @@
         <v>1767</v>
       </c>
       <c r="B1769">
-        <v>0.1611814</v>
+        <v>0.1679013</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14540,7 +14540,7 @@
         <v>1768</v>
       </c>
       <c r="B1770">
-        <v>0.1450726</v>
+        <v>0.1507856</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -14612,7 +14612,7 @@
         <v>1777</v>
       </c>
       <c r="B1779">
-        <v>0.1319255</v>
+        <v>0.1327081</v>
       </c>
     </row>
     <row r="1780" spans="1:2">
@@ -14668,7 +14668,7 @@
         <v>1784</v>
       </c>
       <c r="B1786">
-        <v>0.1116435</v>
+        <v>0.1116867</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14708,7 +14708,7 @@
         <v>1789</v>
       </c>
       <c r="B1791">
-        <v>0.1019402</v>
+        <v>0.1019419</v>
       </c>
     </row>
     <row r="1792" spans="1:2">
@@ -14732,7 +14732,7 @@
         <v>1792</v>
       </c>
       <c r="B1794">
-        <v>0.09872400000000001</v>
+        <v>0.0987241</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
